--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value253.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value253.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.083886987397558</v>
+        <v>1.248976349830627</v>
       </c>
       <c r="B1">
-        <v>1.151412682553419</v>
+        <v>2.214832544326782</v>
       </c>
       <c r="C1">
-        <v>1.309155166593122</v>
+        <v>2.825379848480225</v>
       </c>
       <c r="D1">
-        <v>2.056079667732173</v>
+        <v>3.275952577590942</v>
       </c>
       <c r="E1">
-        <v>3.75790849641968</v>
+        <v>2.118652582168579</v>
       </c>
     </row>
   </sheetData>
